--- a/excel-data-summaries/plant height on pollen capture.xlsx
+++ b/excel-data-summaries/plant height on pollen capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire\Documents\Masters3\masters-thesis\excel-data-summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802E1A7-372F-4A77-AAE5-A8D6751D0A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50DA4AA-1D27-4A52-A307-A585716DC99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{23047FDE-3C0E-4C71-B2D1-4B810F6040EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
   <si>
     <t xml:space="preserve">Effects of flower height on pollen load </t>
   </si>
@@ -238,6 +238,102 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Plantago major</t>
+  </si>
+  <si>
+    <t>1, 12.838</t>
+  </si>
+  <si>
+    <t>1, 148.0</t>
+  </si>
+  <si>
+    <t>8, 139.5</t>
+  </si>
+  <si>
+    <t>1, 76.1</t>
+  </si>
+  <si>
+    <t>4, 80.9</t>
+  </si>
+  <si>
+    <t>1, 87.9</t>
+  </si>
+  <si>
+    <t>3, 84.2</t>
+  </si>
+  <si>
+    <t>1, 26.4</t>
+  </si>
+  <si>
+    <t>2, 28.6</t>
+  </si>
+  <si>
+    <t>1, 31.1</t>
+  </si>
+  <si>
+    <t>3, 31.4</t>
+  </si>
+  <si>
+    <t>4, 81.6</t>
+  </si>
+  <si>
+    <t>1, 30.8</t>
+  </si>
+  <si>
+    <t>1, 146.0</t>
+  </si>
+  <si>
+    <t>5, 160.8</t>
+  </si>
+  <si>
+    <t>1, 67.2</t>
+  </si>
+  <si>
+    <t>6, 81.9</t>
+  </si>
+  <si>
+    <t>1, 308.0</t>
+  </si>
+  <si>
+    <t>7, 256.2</t>
+  </si>
+  <si>
+    <t>1, 17.24</t>
+  </si>
+  <si>
+    <t>1, 12.8</t>
+  </si>
+  <si>
+    <t>1, 23.7</t>
+  </si>
+  <si>
+    <t>1, 24.0</t>
+  </si>
+  <si>
+    <t>1, 102.3</t>
+  </si>
+  <si>
+    <t>6, 94.7</t>
+  </si>
+  <si>
+    <t>1, 137.9</t>
+  </si>
+  <si>
+    <t>5, 146.5</t>
+  </si>
+  <si>
+    <t>1, 124.8</t>
+  </si>
+  <si>
+    <t>4, 129.7</t>
+  </si>
+  <si>
+    <t>1, 41.1</t>
+  </si>
+  <si>
+    <t>1, 26.9</t>
   </si>
 </sst>
 </file>
@@ -314,12 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,11 +418,19 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684BBCE1-B71A-4B17-9835-DE98EA56355A}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,27 +769,27 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -711,98 +809,98 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>2.7345000000000002</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>7.8410000000000007E-3</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>0.80230000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>11.1821</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>2.8630000000000002E-7</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>1.9288000000000001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>0.16839999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>5.2729999999999997</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>2.2130000000000001E-3</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10">
         <v>0.2319</v>
       </c>
       <c r="E10">
@@ -810,32 +908,32 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>15.449400000000001</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>2.809E-5</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12">
         <v>0.82269999999999999</v>
       </c>
       <c r="E12">
@@ -843,65 +941,65 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>2.3811</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="4">
         <v>8.8249999999999995E-2</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14">
         <v>13.683999999999999</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="1">
         <v>2.5520000000000002E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>12.372999999999999</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>2.3319999999999998E-9</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16">
         <v>1.1798</v>
       </c>
       <c r="E16">
@@ -909,131 +1007,131 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>0.92269999999999996</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.45490000000000003</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18">
         <v>0.68220000000000003</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18">
         <v>0.41517999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>15.8413</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>2.419E-4</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20">
         <v>0.24360000000000001</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20">
         <v>0.62229999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>4.8159999999999998</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>3.9449999999999999E-4</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22">
         <v>0.85250000000000004</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>0.35909999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>7.8855000000000004</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>1.0210000000000001E-6</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24">
         <v>0.42380000000000001</v>
       </c>
       <c r="E24">
@@ -1041,224 +1139,244 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>5.9779</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>1.8449999999999999E-6</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>0.78520000000000001</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27">
         <v>0.90110000000000001</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="9">
         <v>0.35210000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>0.33879999999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>0.56589999999999996</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1.4754</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30">
         <v>1.6149</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30">
         <v>0.20669999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="4">
         <v>1.1994</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="4">
         <v>0.31340000000000001</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32">
         <v>2.4367000000000001</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32">
         <v>0.1208</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="4">
         <v>11.7035</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="6">
         <v>1.581E-9</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34">
         <v>2.7507000000000001</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34">
         <v>9.9720000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="6" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="4">
         <v>27.472000000000001</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="4">
         <v>1.6520999999999999</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="4">
         <v>0.2059</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="4">
         <v>0.70209999999999995</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="4">
         <v>0.40949999999999998</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1267,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD3A10C-139D-4E0D-90F2-AE0AB380A8F9}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,642 +1405,662 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>8.8200000000000001E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E4">
-        <v>0.76694700000000005</v>
+        <v>0.77</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.7345000000000002</v>
-      </c>
-      <c r="E5" s="9">
-        <v>7.8410000000000007E-3</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.80230000000000001</v>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6">
-        <v>11.1821</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.8630000000000002E-7</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1.9288000000000001</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.16839999999999999</v>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.17</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5.2729999999999997</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.2130000000000001E-3</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.27</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.2319</v>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>0.23</v>
       </c>
       <c r="E10">
-        <v>0.6341</v>
+        <v>0.63</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6">
-        <v>15.449400000000001</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.809E-5</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15.45</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.8E-5</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.82269999999999999</v>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>0.82</v>
       </c>
       <c r="E12">
-        <v>0.37136999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2.3811</v>
-      </c>
-      <c r="E13" s="12">
-        <v>8.8249999999999995E-2</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="11">
-        <v>13.683999999999999</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2.5520000000000002E-4</v>
+      <c r="D14">
+        <v>13.68</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
-        <v>12.372999999999999</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.3319999999999998E-9</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="D15" s="4">
+        <v>12.37</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.2999999999999999E-9</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="11">
-        <v>1.1798</v>
+      <c r="D16">
+        <v>1.18</v>
       </c>
       <c r="E16">
-        <v>0.28060000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.45490000000000003</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.68220000000000003</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.41517999999999999</v>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>0.68</v>
+      </c>
+      <c r="E18">
+        <v>0.42</v>
       </c>
       <c r="F18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="6">
-        <v>15.8413</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.419E-4</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="D19" s="4">
+        <v>15.84</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.24360000000000001</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.62229999999999996</v>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20">
+        <v>0.24</v>
+      </c>
+      <c r="E20">
+        <v>0.62</v>
       </c>
       <c r="F20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="6">
-        <v>4.8159999999999998</v>
-      </c>
-      <c r="E21" s="9">
-        <v>3.9449999999999999E-4</v>
-      </c>
-      <c r="F21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.82</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.85250000000000004</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0.35909999999999997</v>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22">
+        <v>0.85</v>
+      </c>
+      <c r="E22">
+        <v>0.36</v>
       </c>
       <c r="F22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7.8855000000000004</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1.0210000000000001E-6</v>
-      </c>
-      <c r="F23" s="6"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7.89</v>
+      </c>
+      <c r="E23" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.42380000000000001</v>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>0.42</v>
       </c>
       <c r="E24">
-        <v>0.51549999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="F24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5.9779</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1.8449999999999999E-6</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.98</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="6">
-        <v>7.6600000000000001E-2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.78520000000000001</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1.48</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0.90110000000000001</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="F28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.33879999999999999</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0.56589999999999996</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1.6149</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0.20669999999999999</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <v>1.61</v>
+      </c>
+      <c r="E30">
+        <v>0.21</v>
+      </c>
+      <c r="F30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1.1994</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.31340000000000001</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2.4367000000000001</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.1208</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>2.44</v>
+      </c>
+      <c r="E32">
+        <v>0.12</v>
+      </c>
+      <c r="F32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6">
-        <v>11.7035</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1.581E-9</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1.6000000000000001E-9</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2.7507000000000001</v>
-      </c>
-      <c r="E33" s="11">
-        <v>9.9720000000000003E-2</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>2.75</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="6">
-        <v>27.472000000000001</v>
-      </c>
-      <c r="E34" s="8" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="4">
+        <v>27.47</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1.6520999999999999</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0.2059</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="C36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.70209999999999995</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0.40949999999999998</v>
-      </c>
-      <c r="F36" s="10" t="s">
+      <c r="C37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
